--- a/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2018/80_Yozgat_2018.xlsx
+++ b/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2018/80_Yozgat_2018.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="BuÇalışmaKitabı" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\Yazılarım\İllere Göre Tahsilat Tahakkuk (Yıllara Göre)\indirilen_exceller_2018\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\İllere Göre Tahsilat Tahakkuk 2018\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BA16DB8C-AE62-4B3B-B2BC-485BC10A8542}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{FE49A104-5E0B-4449-939D-9097842A65CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="674" xr2:uid="{18093543-5088-49CF-BF48-A37C68581123}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="674" xr2:uid="{E7339FC0-E9A1-4A66-B59A-376DAE23B745}"/>
   </bookViews>
   <sheets>
     <sheet name="ARALIK" sheetId="91" r:id="rId1"/>
@@ -967,13 +967,13 @@
   <cellStyles count="9">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="2" xr:uid="{C641D626-A210-4AFE-81C5-C8F42868AC81}"/>
-    <cellStyle name="Normal 2 2" xfId="3" xr:uid="{3CB97DB8-C32A-4E74-A0AE-A8DFD525D128}"/>
-    <cellStyle name="Normal 3" xfId="4" xr:uid="{3601635D-DB66-4F25-9763-F061B6AB0174}"/>
-    <cellStyle name="Normal_genel_gelir_det3" xfId="5" xr:uid="{1DC8877E-5AA8-4FB8-9F1A-65672D411437}"/>
-    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="6" xr:uid="{7D54CFA6-D039-4BA5-85DB-2CEF78F91273}"/>
-    <cellStyle name="Not 2" xfId="7" xr:uid="{57CCCF5B-35AD-4D8E-9C25-851730C8F929}"/>
-    <cellStyle name="Virgül [0]_29dan32ye" xfId="8" xr:uid="{C8109EEE-183F-41AA-9D0D-9EE18CB7D6E6}"/>
+    <cellStyle name="Normal 2" xfId="2" xr:uid="{AAC43B57-BC6C-4D1A-B129-4D1BBF6AD352}"/>
+    <cellStyle name="Normal 2 2" xfId="3" xr:uid="{AA3B889C-83C8-4A88-9590-0B261121C48A}"/>
+    <cellStyle name="Normal 3" xfId="4" xr:uid="{B6D12BCA-EF98-4D21-9A72-FD707681EEE7}"/>
+    <cellStyle name="Normal_genel_gelir_det3" xfId="5" xr:uid="{81E5E3BC-8F50-4C94-8CC8-1A22B178987E}"/>
+    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="6" xr:uid="{DD17AD38-6632-4AC8-B649-3E3576CE30D0}"/>
+    <cellStyle name="Not 2" xfId="7" xr:uid="{F0F66CDD-47A0-439A-8CDF-0BB7F194C4A2}"/>
+    <cellStyle name="Virgül [0]_29dan32ye" xfId="8" xr:uid="{7CB54B26-2CE8-451D-AEF6-F57BFB59AE63}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1343,7 +1343,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96AF7127-6A8A-4DDC-A00D-A6059B9AC7DB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{175E042C-52A1-45A7-B865-9B1B0B3992D9}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -2570,18 +2570,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{F16D1867-3B84-4D99-97BB-55BACCB4D1A8}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{0D05855D-5194-4FDC-8D5E-9F78806862AF}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{58B7BBC7-2217-48DD-9DC0-2AF09012C97A}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{D234D868-A6DA-4D23-AF97-DDB130E353A1}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{58DAF11A-B2B5-462B-9D6E-82C8C26C4DE0}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{66B7F03A-638E-4D24-B2E9-B81596A08154}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{555F2EE6-C217-499F-93E2-CCD7C193D993}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{FF8296CC-BCDF-4E89-8614-CB31FBCF5A25}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{0D30E6D1-B42A-4103-B722-6394CDFC96E4}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{2C4E116E-B39C-4D9F-BF24-D98AADA67B14}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{2E3D6C53-9514-4F2A-B6B9-9BC5645317AA}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{3A702860-2776-4CD9-8A29-D0304D95B1C5}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{8474CC3D-986F-4BE5-A170-F4566FB66053}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{1BF65E79-79D6-4429-90F0-38EA7C5E226B}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{3D998390-4D48-45DD-86B5-7E2382DB7F25}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{6AF90935-849C-4E00-A423-D494C2620905}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{961C143D-7B86-4067-8472-378C7E859B50}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{D200720E-8A18-4489-8AA3-A7622E68EF6F}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{45143D6D-EB84-4CC8-B719-128000335F63}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{9A4EDD17-4C97-48FC-8191-9A14478B9F31}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{D357A464-FA7A-4664-9AAA-3AA377BFEBB2}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{6484B93F-BEA4-4E46-83CA-FB3B7E41F666}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{3F764890-0389-44C3-A754-6BAE7418D3AF}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{F752E73C-7127-4931-BDD7-217A60E35090}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -2594,7 +2594,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D97E8089-BFB7-4253-9CA5-DC4A12FDB67A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D80815B4-356E-425C-A0BB-426178EEE75A}">
   <sheetPr codeName="Sayfa7"/>
   <dimension ref="B2:F100"/>
   <sheetViews>
@@ -3810,18 +3810,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{56CB1E17-3FC3-447A-A8DC-7B2F382B6408}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{3F2A5A76-59F9-43A1-9D9F-AD8AF9AF491A}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{35212265-7480-4C5E-BBC3-8AD81AF2976C}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{63348899-8256-4B8C-9355-43AD6D5027EF}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{F654D2B5-8646-44F6-8E27-FEEF986C6B90}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{5AEAC0D6-C762-4A53-81F0-D99F6EDCBB9A}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{02D4B6A5-266D-4092-B1C3-95F713D5A050}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{7025DA6F-68A7-4AFE-B2E2-F0A0A3B64844}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{4D5D38C1-7764-4447-98D7-134FD3AE945A}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{FE229EE1-DE9F-4B94-A44B-951B7B403D68}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{9DEE83B4-5660-4FB0-BAFE-877BC2375F0A}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{10E1B777-335D-404D-B88C-ECC5FA23EB65}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{9D7ED8A6-7431-4D23-A611-965F427EB917}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{12EAFF14-47B7-45BC-95A6-3977BBBE8DCC}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{6585FF5F-B38C-4DB7-8E7E-54B5E9597B6C}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{3CBDC2DA-C495-41DC-96E8-00D62A0DD540}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{B46D201A-25ED-4E1A-97B3-18029B782E0F}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{5691842E-C25A-45DD-A6B1-3D74EE1860DF}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{B1F37BEA-D740-4469-A28E-E3984EEC83E6}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{ACC28452-1CC0-4EB8-AC57-C1E0DD03B43F}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{06540DAB-5590-4103-9E13-E399148ACF06}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{4C152D25-BC90-4E9C-94D3-B87AEBC5DA49}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{446C295D-1FDC-479B-8EF1-2ADE0F5508B5}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{37A9F4D9-36A9-4853-9D23-893A510C91C7}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -3834,7 +3834,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E728B8A-B507-49F4-8899-1849E9135648}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9B72D29-0AE9-495B-9D5F-F6656173AEFE}">
   <sheetPr codeName="Sayfa8"/>
   <dimension ref="B2:F100"/>
   <sheetViews>
@@ -5046,18 +5046,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{3A8FE3C5-7CD7-4912-A839-236F9C7BE37B}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{61BB2E1D-2C8B-4797-B1B0-DF6D21E0325C}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{6574999E-66DD-41C0-8F34-909FAE274154}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{5CF54F3A-667B-426B-BE66-1B1B2724EF08}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{AE5C01EA-95CF-4937-A892-3A3C90644ABA}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{224C0A10-3534-45B3-AD8E-1B4D2633B479}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{D1D0ACB9-C516-4346-B719-0873D51FF84A}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{BD5E7CAF-5C64-4497-827D-55D1A73FFDB6}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{DB05584F-09FC-48C0-9B93-FD52180DF184}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{405F262A-28EF-4CFD-BA98-60A753490F5C}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{FF878EF0-9E2C-4759-AF9C-8ABCEE1BA4AC}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{5810C089-C6F9-499E-9BB6-01EB62C15046}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{4285A7ED-E3CD-4001-8482-72438D943ED3}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{5BE414FD-CB34-408D-AAF1-FC96ADB2D6AB}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{BDB987F5-5CEA-4FEB-97F2-88527171FDCB}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{F3447430-EAA4-493C-8118-6E3FFFC9A6DE}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{21488271-451D-4A4E-983D-7182E0F52A21}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{CAAB48C3-2880-4970-A5A4-28C704607028}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{4AF052DB-3E60-4417-82BD-765BAE32D358}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{6714FC1E-49B7-4E2C-B325-0797FCB43B0F}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{B2DEC90F-DA66-428D-86A2-12C6BB4E696F}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{C6209733-C1D2-4091-90C1-BA323135F527}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{8B4D6F50-FF60-4D8E-9AF1-97DCDB76E3CB}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{96EAB778-F090-487A-BB5D-EEA2F8DD5F8D}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -5070,7 +5070,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{873E52CD-FC0F-458D-877E-89BE5C2964CA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{015189B4-81C1-4FD1-896A-F8873A69CCA5}">
   <sheetPr codeName="Sayfa9"/>
   <dimension ref="B2:F100"/>
   <sheetViews>
@@ -6276,18 +6276,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{B070F898-C8E8-4D07-B45F-E9F4AFB6577E}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{62378564-76CD-4525-92CF-54B9F91EDAF0}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{FD1A6B5B-044B-4804-8C9A-383ADA9EB1E7}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{51D43BB1-7275-4835-9459-591960913BEA}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{A70CF7C8-BB93-4D33-9E12-CFD315B303C7}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{DD0B7F81-6102-471F-B474-45DEEAE18C9B}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{DAEC0968-3F9C-40DE-A315-885FB5E33CDF}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{372D32AF-32E4-4A42-8CAE-1F561AFFB1B3}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{D8D63B4F-DD06-402C-BCC4-EB7E4EC1CAB0}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{06DB568E-3C08-4CE1-B65E-AAA19754F95E}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{218312FF-1207-470F-B3F1-92D915D61316}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{4452BBEA-2976-4109-873B-01B5903E83BA}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{7675B8EB-AD81-4076-BB9F-E6562C87BAF3}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{FD5ADF10-CF31-4D93-9AE1-FC852C4BFCDE}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{F3746194-423A-43D6-801A-232AA56D137C}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{2DB16DE3-226A-40C6-9052-638ACE4A9799}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{B5AF5A93-CD53-4A68-8998-78CF8C5B2E36}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{90096406-DD72-467E-9214-7AE93135E4A4}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{F93BC64A-624A-4B2E-B10D-1B4D84DA9667}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{DC88FED4-DE5D-4CE9-B273-86C7E42792F4}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{CB23EBDC-321F-47CC-8940-CE1C1805845D}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{DB425327-3D9B-451F-BA8B-405FF23DB337}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{8C3D33D1-213A-43E2-9EE0-A66D3058E47E}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{59C74A9F-9E40-4235-8655-38078972395A}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -6300,7 +6300,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20F69BA6-35C0-498E-89CF-5805F3C47A17}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0CF0F457-3707-4302-B872-6F4C3DF4C3E5}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -7527,18 +7527,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{ECFB7164-B4AC-4D9B-A30B-3365AACE00A8}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{4D3C8588-7419-4F06-B6C0-11FCF7B39118}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{F3C5C887-2049-4E0C-8A16-DC9914A5BF3C}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{9042C305-9CF5-43C5-AA06-F283AAB1E2DE}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{A1D60C46-094E-4B17-A382-FCA84BFA37D8}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{1D408A22-5203-44CB-AF1E-23D1DCC12042}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{73478065-3282-4361-93D2-77E923A16447}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{290D6DD5-A689-4EC9-BB82-D88DFD018E8F}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{D7563AB5-000D-47C0-8673-A07DFB7468C6}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{8E6209D3-2D2A-4F53-AA3C-5DC2252CB51A}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{265569E5-8B4A-4A7B-879E-8C1A39F83012}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{8CB34214-5F36-4E31-A219-494113AB0CA2}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{10842E98-D927-4F61-8BE9-9C8704D18DF7}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{8D7CD02B-7C66-4828-AFDE-205A6B5E186C}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{2947D88D-E200-4C15-BE48-BC003F462285}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{DD296396-4B5D-4331-B4B2-E860EB1326A4}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{AE07D66E-352B-4CDE-B599-2F0469AB8BE3}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{02917B41-2914-4024-A90A-628BEEB7E059}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{EC8A3331-791D-4F45-9147-E0E77BD3F77C}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{D37CA4DE-D735-4679-9C2D-48B1375145F5}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{2E53C611-6BBB-42BE-B6DA-616244F63748}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{C3974B2F-B041-40A2-AD8A-C5358A25B3BE}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{EA105839-A586-47F4-9F4E-8E2A7639012B}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{C71D0257-9F13-4201-BF4A-66A177082112}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -7551,7 +7551,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5B45C1B-CCAC-402E-A217-2EFF515D50EC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84DD2B7C-E857-49F1-AB71-688DA0A21277}">
   <sheetPr codeName="Sayfa10"/>
   <dimension ref="B2:F101"/>
   <sheetViews>
@@ -8779,18 +8779,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{ADE95E30-87F0-4698-B993-B56CC0400913}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{84E4BCAF-93F2-4099-BCC7-F7EF5948B15F}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{79AD5B67-CB97-4BC0-85C8-5AE73DF6F8CE}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{2666FA21-E951-48BA-9FE8-A0A44EB84861}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{887F6C3A-A60B-4AA3-BC6E-F997E27DF254}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{7BDA66C4-F07E-467D-A020-C5C667E8CF9F}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{39482727-05F1-4249-BF14-57A9F5DBD07A}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{EABFC9E4-B749-497A-876F-B7BC146B44F4}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{889BEB83-6019-493F-97AC-2D53FA4E5B70}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{240F064C-D3CA-483D-B9AF-4280CE914FFE}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{2E6B87C5-C54A-4E93-917D-19D75048A8EE}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{2372C1B5-B3AF-481A-B420-E0246273BDDB}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{6CF8166D-2F10-4D1C-90BB-A0D063C95E41}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{A8518788-14C0-487B-9F65-6895ADDD2989}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{2BB84E7A-02A4-4BD1-9D69-A00D648FFA3F}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{5EE94440-E865-4B88-9908-B3E22A564F03}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{DB264C3A-0219-43A3-8331-65C4FB9E5F6C}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{E6455446-BB4A-4F25-B532-C5B222069646}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{0E5EFE35-5E06-4826-9DEA-6297C6982DEF}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{0D54F471-F04F-4CE8-831D-BC809E30614E}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{C0679A54-D7D7-4A27-949F-5B5A815DCF77}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{3384C15C-5952-43DC-8342-19976ABCFD27}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{57EF605E-D66A-491B-BE2A-8C82A524896B}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{CF1438E0-8393-4D60-A210-DEA84A42854D}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -8803,7 +8803,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86C28642-F2A9-49AB-83FD-937FE6CA6912}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0619795-FC10-4449-9970-DD27D4A4B637}">
   <sheetPr codeName="Sayfa1"/>
   <dimension ref="B2:F101"/>
   <sheetViews>
@@ -10031,18 +10031,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{0B9946D5-02F3-416E-9E53-296E3C906BD7}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{28662346-0D81-4B83-ACDE-C1C24FBBA461}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{97396C49-99EC-4786-94C7-7F3FCC1FAD00}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{EB39598F-C36C-4259-AE82-5C400ABC8605}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{3A7DAE8A-E3F3-4C3E-AEA8-861DD51EE253}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{23B76218-CDD0-47C0-AEC9-C56BFC4F6D21}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{D15BF210-6978-4D9A-8215-AF0D592E35DF}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{6F1A78B4-7D67-48F8-8C00-28F6D177F0A2}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{E9BCD566-0DC6-412C-9B75-55FC26314D0B}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{33FC272C-8C9C-4277-BC80-C485EACF1529}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{80A0AAAE-3CE4-443D-948A-93D33C591EAB}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{00C74CBE-B553-48E5-B9A5-D2F89C5D1292}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{16430336-197F-43DA-8FA4-78AA659E4365}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{BD78174D-8209-4AB1-A1C2-CEC34543AEB7}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{25BA7359-201B-4ADC-87AC-940FF74E51D0}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{7675581F-8A52-4718-829F-849F88309F6A}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{9EB6FA6F-278E-4AE3-BF09-2D2D90926F86}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{DA1B647D-0646-46C2-913A-F3BB9E0E09B0}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{6731264A-9C81-471E-80B2-AC65F7979335}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{7A93350D-A22D-4D92-9876-2181ED519C75}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{16ACD976-FE11-431F-AA64-D734D8B733C4}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{F24DB1BB-898A-4914-84EC-AA02CE2B160A}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{D67F0AAA-52A1-4CF1-AC7B-9AE9FC7EB101}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{A4B9C389-D533-4EF9-8EA6-5B9D270BF897}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -10055,7 +10055,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{297C4F11-9CD1-4A9E-B899-27225AC8E5DE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ACEE1C71-A2A8-4264-91DB-7DADE332DA9C}">
   <sheetPr codeName="Sayfa2"/>
   <dimension ref="B2:F101"/>
   <sheetViews>
@@ -11283,18 +11283,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{5C47C48F-058D-4E87-8D3E-F06911BFB1FA}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{038409A1-E47B-4BA4-83DD-5AEA086C510D}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{6CD985E6-B16E-4D16-95DB-A8C758923420}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{B2E68168-9440-40D0-B496-688975BB35C1}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{3C16AF05-F441-452E-A9E2-5DDAF9FDF60C}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{25DF2CF9-8039-4272-8D7C-E0545DAD2B54}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{1BD4B166-B00A-4F96-B01D-19D9D8BE2F85}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{4D1202EB-7DAA-425F-ACEF-D613EE89AFE2}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{0D8AB99E-F019-4BF5-A46E-E880BDDAD8E0}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{3B2DC49E-B26B-4F1F-B3C6-4F59D5254F3E}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{B6C2A511-0C5B-4145-A293-7BF9E2F87939}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{316B76F4-C169-437C-8488-8AEB75ED4296}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{B6E44908-7A8F-4A07-902A-4161101D8DD5}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{58DB9710-5A0B-4BF8-8CA7-9030B7235FCE}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{67D5BD63-B33A-4E40-93D7-3A3A2DB17D6D}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{6068F994-14E4-42CA-B3B5-B1E0B79D4F8C}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{303B2337-F3C8-4DE0-9925-CC62529709C7}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{BE709F9C-0183-446B-B263-2511F572FE2B}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{8852EB40-D238-4768-BE8A-14948AB68F97}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{E7191BEF-F95D-4D7C-8381-3B61ED9F23EB}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{670B0E58-D356-4903-B7E8-F5B68C14E06C}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{C20FCBEC-58D0-4A66-8AEB-D532040D6010}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{41BA3401-F864-44F1-B6B1-E17FF63E9AD6}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{CECBE562-691B-459D-B1F0-A3762C8BE18D}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -11307,7 +11307,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F84BDF94-1022-4138-9B39-3C336B1B5FCC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A6D56B7-DDED-4E77-8B84-BE6065B50C6E}">
   <sheetPr codeName="Sayfa3"/>
   <dimension ref="B2:F100"/>
   <sheetViews>
@@ -12527,18 +12527,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{9B039359-5B72-46D1-A3F7-71CEFDDB2E71}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{29F2A08A-C13B-42B3-B500-DA555A34D40C}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{69EA0D78-FCD4-43AB-AEAC-EFC2EF7302F8}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{D624285B-7B97-4A70-9D4F-B85242812465}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{F0A40131-BD65-4A99-AEA5-B3871E02AEA7}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{224E998B-2833-4EBE-931B-0940BA310CF9}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{E7DDC229-65C9-4AA5-8C3C-96B50E983A78}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{794D9A6F-0EFB-4A85-8AED-7B7AF312E294}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{73C3EB58-1217-40F6-98CB-E2C249CFC5AD}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{462853F2-03C7-4523-9B0B-F51E66695884}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{B62CE5BB-48E1-4DEE-9D1A-3CFBF53C99DD}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{0581878B-8BD0-4104-957D-C1CC12C215B8}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{96454234-0537-4ECE-93F9-478A3D549D0C}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{EF7F4EF8-B93E-4952-818F-686B08302814}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{25C425E4-AB17-45C5-8AAA-435496FF57EB}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{DD481897-0E60-492C-9B8C-3F92518D86C1}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{6D4EE25D-D004-49DD-9C4D-71490AF6B57B}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{ABBBE041-B74A-495C-8AE1-DF964B534A75}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{5C1EC9B6-33C9-4C28-A792-F7BF0A8802FF}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{BEABD2A2-36F7-4A28-B0C2-8AD9A5A1E38F}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{9C25E0A1-CD2B-4511-B3DC-4E57A0D48240}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{D429A336-B5FA-42BF-8BD5-A98514DEACAB}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{2C1D35EF-10BF-4EDC-B2BF-98679396B825}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{D055DD33-4370-45F9-95D0-42ED780CC189}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -12551,7 +12551,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8D1BC02-578A-4000-A1A0-1C9C20A71E06}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66EBB801-DFE3-41D7-969D-9C42371D1258}">
   <sheetPr codeName="Sayfa4"/>
   <dimension ref="B2:F100"/>
   <sheetViews>
@@ -13771,18 +13771,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{BA6CBB1A-51BB-496A-BD90-C12F9079243F}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{93D0AE0A-1E4A-47F5-A861-97897B6E57AE}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{144A23B5-2B02-4758-8300-0C65CA1E78AB}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{0465F099-1895-439E-A42D-C2AA93729E2C}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{DE239759-3844-47EF-A875-C006CD4BBE45}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{AFC389AF-D37F-4E09-9B66-A84AA1496B5E}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{88D8FA43-50AF-4584-85B7-896C2B6EB66B}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{6BDA91C3-2E44-4C4D-8313-533DB147E439}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{202FA57A-E849-4B92-ACA1-149964FD3EEA}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{730B2708-A227-4D74-82F6-512C2E980461}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{DDC3070F-7729-41C9-8F4E-F820E553C1D7}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{A89BF332-DB11-4931-AD2B-389305A4A6BD}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{E5BFEEF9-BC8F-45CB-9B10-7BC8088212EA}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{AA2A2388-29C4-41E4-9D98-93F13E7FF450}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{796EEEBA-0025-430D-A83D-5C98994243B6}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{A390071B-4860-4D52-9E5A-DDA5C18369B4}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{50FDF708-1097-414F-9A0B-0B7A72F6480D}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{52A53CAD-6568-498D-9342-D34BE2A796C8}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{696900B9-9125-475C-A0B0-146219DB8030}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{EF3590AC-F9B0-4437-8E8C-4B51B437B48D}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{B018FFCF-D960-4916-BCDA-A78AD6E9AA9F}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{597C1DE9-1320-447A-A6EA-C618F44324B5}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{A00D3427-BD97-4EB2-ADD5-C9B95A2E146D}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{C0A33027-88F5-46E9-B99D-15521F814F58}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -13795,7 +13795,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17B1C768-2466-488E-A3F3-F6C891591EE3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4D4E8B6-6EB4-4FA2-A3D2-00A5B18E1B19}">
   <sheetPr codeName="Sayfa5"/>
   <dimension ref="B2:F100"/>
   <sheetViews>
@@ -15015,18 +15015,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{36A76D80-C7D7-44D4-AAED-B900EB3BF2B2}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{1C4F8B97-F9FE-46E9-B6FB-E243CD75B56B}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{89BBD2C8-47C3-43D1-A972-C61E82374966}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{84BE9DEF-C6F8-47AD-B036-94FBA355E39E}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{48F61C95-3417-4BE2-8181-EB5FF8FB9D1E}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{D0F4C3C4-D644-4F8B-8F5E-6CEA04E2F48E}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{B155B6B8-3BE6-4108-A9A6-95E35BAAA782}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{740D0D5B-F821-4E18-A581-3F182EBF732E}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{48C30213-29BB-46E8-AFA2-D8CC3F0F01C2}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{0E4C66F3-F10B-44F8-BEEF-F75191F952A4}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{8411E4FC-A76D-470E-BBB9-4C48F2ACA2D2}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{49D3BF67-6927-487A-A575-4A157795E1CB}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{1260FE4E-52C1-48AA-905D-AF0E9A918EE8}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{B26A9398-E418-43BF-9351-F5A5C245C4A5}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{C3735664-3144-4B7C-A37D-9E94309A9B72}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{6B5305EA-0906-4EA4-82C2-4A44373BB062}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{0128AEA4-AAAE-4B55-8900-B9DBF1E8B20D}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{9F9465F1-2F40-4A99-A239-59A3010E36CF}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{8454E88D-8CC6-466C-98ED-BA0FCDF2AD9C}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{2AFE17FF-1025-48C8-AA01-E8F1AB15DEC6}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{EAA7ABC5-EF4A-4BB9-9802-5B4A246B1068}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{E8AE8081-F832-4478-B878-F799AD3FC4E1}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{339C0079-97D0-4608-8D4F-8FA3FA3292C5}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{EA5F8B8B-9D1A-4DE5-9404-3D302EF83250}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -15039,7 +15039,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0438E9B2-1AD3-4DD3-A750-E3027E75534A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD98B49C-0DE1-4056-BBAD-E559E98FE915}">
   <sheetPr codeName="Sayfa6"/>
   <dimension ref="B2:F100"/>
   <sheetViews>
@@ -16255,18 +16255,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{CAC77970-68F4-427F-B8ED-A7C215500399}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{6CFD10C6-9BC8-4F3A-9644-0C5CA751F8A2}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{06D23CBF-8529-4855-9724-DDF50E5F09C5}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{5D48BD3D-C39A-417D-A4DD-08C3EE05EDD8}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{37B74C54-AA08-46FC-80FB-EC637AA0BBA9}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{E495903A-5B71-4858-B775-0368E386F42B}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{52324807-9574-40B5-A963-359FF8E6477D}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{55A03AF4-BA0F-4A76-B67B-AF0C0CFDAE8B}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{366DF21A-80D6-4C06-B459-DD146CFB1C43}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{DDB686EA-4B2C-43EA-B8E2-F2966CD51C2C}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{5CF9FBFE-B95D-4118-A83C-B5825778C9F9}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{84D13490-80C2-49B6-A26E-DB2BDD595EE9}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{0170EAC5-262E-4213-95E7-2F0F3FF915F3}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{2FEE9197-A5F3-47AA-8B93-BB02A571485E}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{954AF592-B2F2-4CD5-86F0-B8460C8C3121}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{8E1A3993-C33C-4535-B99A-537E9F860263}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{2CEE80EE-2E1E-4BEF-85AE-9A3A20FBEA0C}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{83F6859D-8BBB-4877-8D07-84862F22B446}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{961994CC-3E80-49D7-8491-192FE3845022}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{BABB52B9-853A-4BAE-80DC-13F614DB156D}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{9928FD00-0A66-41F9-94A0-0E6AD54ADF0E}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{F5886AFB-587C-4E5A-84D3-650878807169}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{9D7E574E-C4AA-49B3-9538-B6E28361B969}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{76274EB1-D780-48C9-8B78-008BC0C377B8}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
